--- a/flask-server/data/data.xlsx
+++ b/flask-server/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadia\Desktop\University\4A_Spring 2024\MSCI_436\MSCI436\flask-server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadia\Desktop\University\4A_Spring 2024\MSCI_436\MSCI436-1\flask-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FB70E5-29BE-4928-9D37-26F8331C9652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D1716-9FB7-4BC7-8D01-33EEB207F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="139">
   <si>
     <t>University</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>Ancillary Fees</t>
-  </si>
-  <si>
-    <t>Kinesiology</t>
   </si>
   <si>
     <t>Retention Rate</t>
@@ -988,6 +985,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,7 +1007,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1375,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122:B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1394,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -2416,7 +2413,7 @@
       <c r="B94" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="80">
+      <c r="C94" s="69">
         <v>0.74</v>
       </c>
     </row>
@@ -2493,7 +2490,7 @@
       <c r="B101" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="80">
+      <c r="C101" s="69">
         <v>0.8</v>
       </c>
     </row>
@@ -2722,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>76</v>
@@ -2733,7 +2730,7 @@
         <v>4</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C123" s="58">
         <v>0.84799999999999998</v>
@@ -2744,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>76</v>
@@ -2755,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C125" s="58">
         <v>0.92589999999999995</v>
@@ -2766,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C126" s="58">
         <v>0.95450000000000002</v>
@@ -2777,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C127" s="58">
         <v>0.97499999999999998</v>
@@ -2788,7 +2785,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>76</v>
@@ -2799,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>76</v>
@@ -2810,7 +2807,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>76</v>
@@ -2821,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C131" s="58">
         <v>0.92859999999999998</v>
@@ -2832,7 +2829,7 @@
         <v>78</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C132" s="58">
         <v>0.8367</v>
@@ -2843,7 +2840,7 @@
         <v>15</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C133" s="26" t="s">
         <v>76</v>
@@ -2854,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C134" s="26" t="s">
         <v>76</v>
@@ -2865,7 +2862,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C135" s="58">
         <v>0.87250000000000005</v>
@@ -2876,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C136" s="58">
         <v>0.90239999999999998</v>
@@ -2887,7 +2884,7 @@
         <v>17</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C137" s="58">
         <v>0.89710000000000001</v>
@@ -2898,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C138" s="58">
         <v>0.92859999999999998</v>
@@ -2909,7 +2906,7 @@
         <v>82</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C139" s="58">
         <v>0.92589999999999995</v>
@@ -2920,7 +2917,7 @@
         <v>19</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C140" s="58">
         <v>0.87760000000000005</v>
@@ -2931,7 +2928,7 @@
         <v>21</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="C141" s="58">
         <v>0.7913</v>
@@ -3187,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
@@ -3450,54 +3447,54 @@
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="74" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="75" t="s">
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="73"/>
+      <c r="AC2" s="74"/>
       <c r="AD2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="AE2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="76" t="s">
+      <c r="AF2" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="70"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="71"/>
       <c r="AJ2" s="10" t="s">
         <v>32</v>
       </c>
@@ -8559,7 +8556,7 @@
   </sheetPr>
   <dimension ref="A1:I768"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -8591,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>76</v>
@@ -8599,10 +8596,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>76</v>
@@ -8610,18 +8607,18 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="C4" s="53">
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>72</v>
@@ -8632,21 +8629,21 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="C6" s="53">
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>76</v>
@@ -8654,10 +8651,10 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>76</v>
@@ -8665,10 +8662,10 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>76</v>
@@ -8676,10 +8673,10 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>76</v>
@@ -8687,98 +8684,98 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="53">
-        <v>0.85399999999999998</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C12" s="53">
-        <v>0.91400000000000003</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>76</v>
+      <c r="C13" s="53">
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="26" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="53">
-        <v>0.85499999999999998</v>
+        <v>72</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="53">
-        <v>0.89200000000000002</v>
+        <v>72</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="53">
-        <v>0.875</v>
+        <v>72</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C17" s="53">
-        <v>0.84499999999999997</v>
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="26" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="53">
-        <v>0.88300000000000001</v>
+        <v>72</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>76</v>
@@ -8786,10 +8783,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="26" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
@@ -8797,35 +8794,35 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="53">
-        <v>0.89600000000000002</v>
+      <c r="C21" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="53">
-        <v>0.86</v>
+      <c r="C22" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C23" s="53">
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -8833,62 +8830,62 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="53">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.4">
       <c r="A25" s="26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C25" s="53">
-        <v>0.88400000000000001</v>
+        <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.4">
       <c r="A26" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C26" s="53">
-        <v>0.88400000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.4">
       <c r="A27" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="53">
-        <v>0.86099999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.4">
       <c r="A28" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C28" s="53">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.4">
       <c r="A29" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>76</v>
@@ -8896,189 +8893,189 @@
     </row>
     <row r="30" spans="1:3" ht="14.4">
       <c r="A30" s="26" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="53">
-        <v>0.84599999999999997</v>
+        <v>0.82199999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.4">
       <c r="A31" s="26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C31" s="53">
-        <v>0.86699999999999999</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.4">
       <c r="A32" s="26" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="53">
-        <v>0.83599999999999997</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.4">
       <c r="A33" s="26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C33" s="53">
-        <v>0.84599999999999997</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.4">
       <c r="A34" s="26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C34" s="53">
-        <v>0.84699999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.4">
       <c r="A35" s="26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="53">
-        <v>0.87</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.4">
       <c r="A36" s="26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C36" s="53">
-        <v>0.88600000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.4">
       <c r="A37" s="26" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="53">
-        <v>0.84399999999999997</v>
+        <v>0.91600000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.4">
       <c r="A38" s="26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C38" s="53">
-        <v>0.85499999999999998</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.4">
       <c r="A39" s="26" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C39" s="53">
-        <v>0.86299999999999999</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.4">
       <c r="A40" s="26" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C40" s="53">
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.4">
       <c r="A41" s="26" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C41" s="53">
-        <v>0.86099999999999999</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.4">
       <c r="A42" s="26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="53">
-        <v>0.93899999999999995</v>
+        <v>38</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.4">
       <c r="A43" s="26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C43" s="53">
-        <v>0.9</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.4">
       <c r="A44" s="26" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C44" s="53">
-        <v>0.93</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.4">
       <c r="A45" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="53">
+        <v>0.84599999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.4">
       <c r="A46" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C46" s="53">
-        <v>0.91</v>
+        <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.4">
@@ -9086,139 +9083,139 @@
         <v>9</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C47" s="53">
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.4">
       <c r="A48" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="53">
-        <v>0.89500000000000002</v>
+        <v>38</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.4">
       <c r="A49" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="53">
-        <v>0.96899999999999997</v>
+      <c r="C49" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.4">
       <c r="A50" s="26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C50" s="53">
+        <v>0.84</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.4">
       <c r="A51" s="26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C51" s="53">
-        <v>0.86099999999999999</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.4">
       <c r="A52" s="26" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C52" s="53">
-        <v>0.89800000000000002</v>
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4">
       <c r="A53" s="26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C53" s="53">
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4">
       <c r="A54" s="26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C54" s="53">
-        <v>0.85699999999999998</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4">
       <c r="A55" s="26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="53">
-        <v>0.88600000000000001</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.4">
       <c r="A56" s="26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C56" s="53">
-        <v>0.90700000000000003</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4">
       <c r="A57" s="26" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>76</v>
+      <c r="C57" s="53">
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.4">
       <c r="A58" s="26" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C58" s="53">
+        <v>0.85299999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.4">
       <c r="A59" s="26" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>76</v>
@@ -9226,32 +9223,32 @@
     </row>
     <row r="60" spans="1:3" ht="14.4">
       <c r="A60" s="26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C60" s="53">
+        <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.4">
       <c r="A61" s="26" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C61" s="53">
+        <v>0.879</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4">
       <c r="A62" s="26" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>76</v>
@@ -9259,76 +9256,76 @@
     </row>
     <row r="63" spans="1:3" ht="14.4">
       <c r="A63" s="26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="27" t="s">
-        <v>76</v>
+      <c r="C63" s="53">
+        <v>0.89200000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.4">
       <c r="A64" s="26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="53">
-        <v>0.873</v>
+        <v>39</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.4">
       <c r="A65" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="C65" s="53">
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.4">
       <c r="A66" s="26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="53">
-        <v>0.84699999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.4">
       <c r="A67" s="26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="53">
-        <v>0.84399999999999997</v>
+        <v>39</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.4">
       <c r="A68" s="26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="C68" s="53">
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.4">
       <c r="A69" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>76</v>
@@ -9339,29 +9336,29 @@
         <v>13</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="53">
-        <v>0.82199999999999995</v>
+        <v>39</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.4">
       <c r="A71" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="27" t="s">
-        <v>76</v>
+      <c r="C71" s="53">
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.4">
       <c r="A72" s="26" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>76</v>
@@ -9369,54 +9366,54 @@
     </row>
     <row r="73" spans="1:3" ht="14.4">
       <c r="A73" s="26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" s="53">
-        <v>0.84</v>
+        <v>0.85599999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.4">
       <c r="A74" s="26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="53">
-        <v>0.93500000000000005</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.4">
       <c r="A75" s="26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="53">
-        <v>0.92700000000000005</v>
+        <v>39</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.4">
       <c r="A76" s="26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="53">
-        <v>0.94499999999999995</v>
+        <v>39</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.4">
       <c r="A77" s="26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C77" s="27" t="s">
         <v>76</v>
@@ -9424,167 +9421,167 @@
     </row>
     <row r="78" spans="1:3" ht="14.4">
       <c r="A78" s="26" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C78" s="53">
-        <v>0.94499999999999995</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.4">
       <c r="A79" s="26" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="53">
-        <v>0.93100000000000005</v>
+      <c r="C79" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.4">
       <c r="A80" s="26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C80" s="53">
-        <v>0.89800000000000002</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.4">
       <c r="A81" s="26" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C81" s="53">
-        <v>0.93300000000000005</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.4">
       <c r="A82" s="26" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="53">
-        <v>0.96399999999999997</v>
+      <c r="C82" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.4">
       <c r="A83" s="26" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="53">
-        <v>0.90600000000000003</v>
+        <v>40</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.4">
       <c r="A84" s="26" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="C84" s="53">
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.4">
       <c r="A85" s="26" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C85" s="53">
-        <v>0.93</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.4">
       <c r="A86" s="26" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C86" s="53">
-        <v>0.92400000000000004</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.4">
       <c r="A87" s="26" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="C87" s="53">
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.4">
       <c r="A88" s="26" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="53">
-        <v>0.88800000000000001</v>
+        <v>40</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.4">
       <c r="A89" s="26" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="53">
-        <v>0.96199999999999997</v>
+        <v>40</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.4">
       <c r="A90" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C90" s="53">
-        <v>0.90600000000000003</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.4">
       <c r="A91" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="C91" s="53">
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.4">
       <c r="A92" s="26" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C92" s="53">
-        <v>0.92700000000000005</v>
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.4">
@@ -9592,84 +9589,84 @@
         <v>15</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C93" s="53">
-        <v>0.89</v>
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.4">
       <c r="A94" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C94" s="53">
-        <v>0.88500000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.4">
       <c r="A95" s="26" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C95" s="53">
-        <v>0.85599999999999998</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.4">
       <c r="A96" s="26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C96" s="53">
-        <v>0.90500000000000003</v>
+        <v>0.89300000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.4">
       <c r="A97" s="26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C97" s="53">
-        <v>0.93899999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.4">
       <c r="A98" s="26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C98" s="53">
-        <v>0.89</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.4">
       <c r="A99" s="26" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C99" s="53">
-        <v>0.85099999999999998</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.4">
       <c r="A100" s="26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C100" s="27" t="s">
         <v>76</v>
@@ -9677,167 +9674,167 @@
     </row>
     <row r="101" spans="1:3" ht="14.4">
       <c r="A101" s="26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="C101" s="53">
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.4">
       <c r="A102" s="26" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" s="53">
-        <v>0.82299999999999995</v>
+        <v>74</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.4">
       <c r="A103" s="26" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C103" s="53">
-        <v>0.879</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.4">
       <c r="A104" s="26" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C104" s="27" t="s">
-        <v>76</v>
+      <c r="C104" s="53">
+        <v>0.87</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.4">
       <c r="A105" s="26" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C105" s="53">
-        <v>0.83</v>
+        <v>0.83599999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.4">
       <c r="A106" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C106" s="53">
-        <v>0.90100000000000002</v>
+        <v>74</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.4">
       <c r="A107" s="26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C107" s="53">
-        <v>0.88100000000000001</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.4">
       <c r="A108" s="26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C108" s="53">
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.4">
       <c r="A109" s="26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C109" s="53">
+        <v>0.873</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.4">
       <c r="A110" s="26" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110" s="53">
-        <v>0.873</v>
+        <v>74</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.4">
       <c r="A111" s="26" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C111" s="53">
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.4">
       <c r="A112" s="26" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C112" s="27" t="s">
-        <v>76</v>
+      <c r="C112" s="53">
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.4">
       <c r="A113" s="26" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C113" s="53">
-        <v>0.92900000000000005</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.4">
       <c r="A114" s="26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C114" s="53">
-        <v>0.89300000000000002</v>
+        <v>74</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.4">
       <c r="A115" s="26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="53">
-        <v>0.84899999999999998</v>
+        <v>74</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.4">
@@ -9845,18 +9842,18 @@
         <v>12</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C116" s="53">
-        <v>0.89400000000000002</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.4">
       <c r="A117" s="26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C117" s="27" t="s">
         <v>76</v>
@@ -9864,76 +9861,76 @@
     </row>
     <row r="118" spans="1:3" ht="14.4">
       <c r="A118" s="26" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C118" s="53">
-        <v>0.86599999999999999</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.4">
       <c r="A119" s="26" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C119" s="53">
+        <v>0.88200000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.4">
       <c r="A120" s="26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="53">
-        <v>0.88</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.4">
       <c r="A121" s="26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C121" s="53">
-        <v>0.91</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.4">
       <c r="A122" s="26" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C122" s="53">
-        <v>0.95599999999999996</v>
+        <v>75</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.4">
       <c r="A123" s="26" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C123" s="53">
-        <v>0.88500000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.4">
       <c r="A124" s="26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C124" s="27" t="s">
         <v>76</v>
@@ -9941,98 +9938,98 @@
     </row>
     <row r="125" spans="1:3" ht="14.4">
       <c r="A125" s="26" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C125" s="53">
-        <v>0.91300000000000003</v>
+        <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.4">
       <c r="A126" s="26" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C126" s="53">
-        <v>0.91600000000000004</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.4">
       <c r="A127" s="26" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C127" s="53">
+        <v>0.9</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.4">
       <c r="A128" s="26" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C128" s="53">
+        <v>0.86099999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.4">
       <c r="A129" s="26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" s="53">
-        <v>0.97799999999999998</v>
+        <v>75</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.4">
       <c r="A130" s="26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C130" s="53">
-        <v>0.876</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.4">
       <c r="A131" s="26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C131" s="53">
-        <v>0.873</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.4">
       <c r="A132" s="26" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C132" s="53">
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.4">
       <c r="A133" s="26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C133" s="27" t="s">
         <v>76</v>
@@ -10040,57 +10037,57 @@
     </row>
     <row r="134" spans="1:3" ht="14.4">
       <c r="A134" s="26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C134" s="53">
-        <v>0.86899999999999999</v>
+        <v>0.85099999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.4">
       <c r="A135" s="26" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C135" s="53">
-        <v>0.83</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.4">
       <c r="A136" s="26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C136" s="53">
-        <v>0.872</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.4">
       <c r="A137" s="26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C137" s="53">
-        <v>0.85299999999999998</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.4">
       <c r="A138" s="26" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C138" s="53">
-        <v>0.92500000000000004</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.4">
@@ -10106,65 +10103,65 @@
     </row>
     <row r="140" spans="1:3" ht="14.4">
       <c r="A140" s="26" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C140" s="53">
-        <v>0.94099999999999995</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.4">
       <c r="A141" s="26" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C141" s="53">
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.4">
       <c r="A142" s="26" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C142" s="53">
-        <v>0.93600000000000005</v>
+        <v>46</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.4">
       <c r="A143" s="26" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="C143" s="53">
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.4">
       <c r="A144" s="26" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" s="53">
-        <v>0.88200000000000001</v>
+        <v>46</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.4">
       <c r="A145" s="26" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C145" s="27" t="s">
         <v>76</v>
@@ -10172,43 +10169,43 @@
     </row>
     <row r="146" spans="1:3" ht="14.4">
       <c r="A146" s="26" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>76</v>
+        <v>46</v>
+      </c>
+      <c r="C146" s="53">
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.4">
       <c r="A147" s="26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C147" s="53">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.4">
       <c r="A148" s="26" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C148" s="27" t="s">
-        <v>76</v>
+      <c r="C148" s="53">
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.4">
       <c r="A149" s="26" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C149" s="27" t="s">
         <v>76</v>
@@ -10216,87 +10213,87 @@
     </row>
     <row r="150" spans="1:3" ht="14.4">
       <c r="A150" s="26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C150" s="53">
-        <v>0.92400000000000004</v>
+        <v>46</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.4">
       <c r="A151" s="26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C151" s="53">
-        <v>0.875</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.4">
       <c r="A152" s="26" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152" s="53">
-        <v>0.90900000000000003</v>
+        <v>46</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.4">
       <c r="A153" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C153" s="53">
-        <v>0.83799999999999997</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.4">
       <c r="A154" s="26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C154" s="53">
-        <v>0.86699999999999999</v>
+        <v>46</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.4">
       <c r="A155" s="26" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C155" s="53">
-        <v>0.8</v>
+        <v>46</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.4">
       <c r="A156" s="26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C156" s="53">
-        <v>0.87</v>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.4">
       <c r="A157" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B157" s="26" t="s">
-        <v>72</v>
+        <v>17</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C157" s="27" t="s">
         <v>76</v>
@@ -10304,35 +10301,35 @@
     </row>
     <row r="158" spans="1:3" ht="14.4">
       <c r="A158" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C158" s="53">
-        <v>0.88</v>
+        <v>46</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.4">
       <c r="A159" s="26" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C159" s="53">
-        <v>0.877</v>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.4">
       <c r="A160" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C160" s="53">
-        <v>0.876</v>
+        <v>46</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.4">
@@ -10340,10 +10337,10 @@
         <v>21</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C161" s="53">
-        <v>0.879</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.2">
@@ -12168,7 +12165,11 @@
       <c r="C768" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z161" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:Z161" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I161">
+      <sortCondition ref="B1:B161"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="C1:C768">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
@@ -12185,8 +12186,8 @@
   </sheetPr>
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -17309,13 +17310,13 @@
       <c r="E31" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="L31" s="78"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
     </row>
     <row r="32" spans="1:18" ht="14.4">
       <c r="A32" s="26" t="s">
